--- a/runapp/add_isue_attribute/Keys.xlsx
+++ b/runapp/add_isue_attribute/Keys.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
+  <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Прод" sheetId="5" r:id="rId1"/>
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
-  <si>
-    <t>None</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>Фраза</t>
   </si>
@@ -39,148 +36,172 @@
     <t>Второе слово</t>
   </si>
   <si>
-    <t>saving</t>
-  </si>
-  <si>
     <t>Второй рисунок</t>
   </si>
   <si>
     <t>Вторая фраза.</t>
   </si>
   <si>
-    <t>Интимные отношения.</t>
-  </si>
-  <si>
-    <t>chernivtsi-city</t>
-  </si>
-  <si>
-    <t>Интерестные места в Черновцах</t>
-  </si>
-  <si>
-    <t>гимнастик</t>
-  </si>
-  <si>
-    <t>Как правильно приучать детей к спорту.</t>
-  </si>
-  <si>
-    <t>Дети занимаются спортом.</t>
-  </si>
-  <si>
-    <t>атлетик</t>
-  </si>
-  <si>
-    <t>kyiv-city</t>
-  </si>
-  <si>
-    <t>Основные достопримечательности Киева.</t>
-  </si>
-  <si>
-    <t>кафе</t>
-  </si>
-  <si>
-    <t>Как определить качественное кофе.</t>
-  </si>
-  <si>
-    <t>Чашка с кофе.</t>
-  </si>
-  <si>
-    <t>термос</t>
-  </si>
-  <si>
-    <t>Как правильно выбрать термос.</t>
-  </si>
-  <si>
-    <t>Выбираем термос.</t>
-  </si>
-  <si>
-    <t>ternopil</t>
-  </si>
-  <si>
-    <t>Интерестные места в Тернополе.</t>
-  </si>
-  <si>
-    <t>vinnytsia</t>
-  </si>
-  <si>
-    <t>Интерестные места в Виннице.</t>
-  </si>
-  <si>
-    <t>poltava</t>
-  </si>
-  <si>
-    <t>Основные достопримечательности Полтавы.</t>
-  </si>
-  <si>
-    <t>lutsk</t>
-  </si>
-  <si>
-    <t>Основные достопримечательности Луцка.</t>
-  </si>
-  <si>
-    <t>zhytomyr</t>
-  </si>
-  <si>
-    <t>Основные достопримечательности Житомира.</t>
-  </si>
-  <si>
-    <t>maksim-polyakov</t>
-  </si>
-  <si>
-    <t>Как наука приносит пользу в мир.</t>
-  </si>
-  <si>
-    <t>Наука и жизнь.</t>
-  </si>
-  <si>
-    <t>чип-тюнинг</t>
-  </si>
-  <si>
-    <t>Как прошить чип автомобиля.</t>
-  </si>
-  <si>
-    <t>Чип автомобиля.</t>
-  </si>
-  <si>
-    <t>max-polyakov</t>
-  </si>
-  <si>
-    <t>Основные цели науки.</t>
-  </si>
-  <si>
-    <t>titan gel</t>
-  </si>
-  <si>
-    <t>Как улучшить интимные отношения.</t>
-  </si>
-  <si>
-    <t>huis</t>
-  </si>
-  <si>
-    <t>Как выгоднее продать дом.</t>
-  </si>
-  <si>
-    <t>Продажа дома.</t>
-  </si>
-  <si>
-    <t>файлов,хранилищ</t>
-  </si>
-  <si>
-    <t>Как оргнизовать большое файловое хранилище.</t>
-  </si>
-  <si>
-    <t>Файловое хранилище.</t>
-  </si>
-  <si>
-    <t>крафт-пакет</t>
-  </si>
-  <si>
-    <t>Как правильно предложить товар.</t>
+    <t>футволе</t>
+  </si>
+  <si>
+    <t>Приучиваем детей к спорту.</t>
+  </si>
+  <si>
+    <t>Детская футбольная команада.</t>
+  </si>
+  <si>
+    <t>зоопарк</t>
+  </si>
+  <si>
+    <t>Как создается зоопарк.</t>
+  </si>
+  <si>
+    <t>Звери в зоопарке.</t>
+  </si>
+  <si>
+    <t>ландшафт</t>
+  </si>
+  <si>
+    <t>Как создается ландшафтный дизайн.</t>
+  </si>
+  <si>
+    <t>Ландшафтный дизайн.</t>
+  </si>
+  <si>
+    <t>диригент</t>
+  </si>
+  <si>
+    <t>Как создается оркестр.</t>
+  </si>
+  <si>
+    <t>Оркестр</t>
+  </si>
+  <si>
+    <t>київ</t>
+  </si>
+  <si>
+    <t>Интерестные места в Киеве.</t>
+  </si>
+  <si>
+    <t>другій світов</t>
+  </si>
+  <si>
+    <t>Влияние Второй Мировйо войны на ход истории.</t>
+  </si>
+  <si>
+    <t>ippPMAAAAAJ&amp;h</t>
+  </si>
+  <si>
+    <t>Как наука влияет на ход истории.</t>
+  </si>
+  <si>
+    <t>развал схожден</t>
+  </si>
+  <si>
+    <t>Как регулируется развал-схождение автомобиля.</t>
+  </si>
+  <si>
+    <t>Регулировка развал-схождения.</t>
+  </si>
+  <si>
+    <t>ацц лонг</t>
+  </si>
+  <si>
+    <t>Как лечить сильный кашель.</t>
+  </si>
+  <si>
+    <t>Сильный кашель.</t>
+  </si>
+  <si>
+    <t>охранная система</t>
+  </si>
+  <si>
+    <t>Как обезопасить свою недвижимость.</t>
+  </si>
+  <si>
+    <t>Охранная система.</t>
+  </si>
+  <si>
+    <t>сантехник</t>
+  </si>
+  <si>
+    <t>Что далать при поломке сантехники.</t>
+  </si>
+  <si>
+    <t>Поломка сантехники.</t>
+  </si>
+  <si>
+    <t>геймз</t>
+  </si>
+  <si>
+    <t>Как правильно делать ставки на спорт.</t>
+  </si>
+  <si>
+    <t>Ставки на спорт.</t>
+  </si>
+  <si>
+    <t>амоксиклав</t>
+  </si>
+  <si>
+    <t>Симптомы заболевания верхник дыхательных путей.</t>
+  </si>
+  <si>
+    <t>Расприраторные заболевания.</t>
+  </si>
+  <si>
+    <t>фильм</t>
+  </si>
+  <si>
+    <t>Любимые жанры кино.</t>
+  </si>
+  <si>
+    <t>органайзер</t>
+  </si>
+  <si>
+    <t>Как организовать свое рабочее место.</t>
+  </si>
+  <si>
+    <t>Рабочее место офисного сотрудника.</t>
+  </si>
+  <si>
+    <t>настольная лампа</t>
+  </si>
+  <si>
+    <t>Как выбрать настольную лампу.</t>
+  </si>
+  <si>
+    <t>Настольная лампа.</t>
+  </si>
+  <si>
+    <t>юбки</t>
+  </si>
+  <si>
+    <t>Модные юбки этого сезона.</t>
+  </si>
+  <si>
+    <t>Модная юбка.</t>
+  </si>
+  <si>
+    <t>реальный мир</t>
+  </si>
+  <si>
+    <t>Как политика влияет на психологию.</t>
+  </si>
+  <si>
+    <t>massage</t>
+  </si>
+  <si>
+    <t>Как правильно делать массаж.</t>
+  </si>
+  <si>
+    <t>Массаж всего тела.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -500,103 +521,76 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.7109375" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="61.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -604,39 +598,21 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -644,59 +620,32 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -704,181 +653,117 @@
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>0</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
